--- a/Data/Participación (2009-2020).xlsx
+++ b/Data/Participación (2009-2020).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/Departamentales-vs-COVID/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CADE1-605D-6544-A33D-43DD1A069FE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080388E-6D60-9745-B8A9-F6D0780EC380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="500" windowWidth="25440" windowHeight="14280" xr2:uid="{7077CCCA-6566-8D4D-BCE1-119E5B28176E}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="25440" windowHeight="14280" xr2:uid="{7077CCCA-6566-8D4D-BCE1-119E5B28176E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -601,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3D2684-17CA-2241-AE90-EC009D931FC4}">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
